--- a/PresentValueSeries/Dimensions.xlsx
+++ b/PresentValueSeries/Dimensions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="267" documentId="115_{10AFBFEB-3BAF-4AC5-BAD0-29DBDB54EF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71823BF6-E5BE-4A1F-A5EB-4A0848500D45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12672CD4-03D8-4FAD-87B4-1068DAD82F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,21 @@
     <sheet name="EconomicBasis" sheetId="13" r:id="rId11"/>
     <sheet name="Currency" sheetId="15" r:id="rId12"/>
     <sheet name="PnlVariableType" sheetId="16" r:id="rId13"/>
-    <sheet name="Novelty" sheetId="17" r:id="rId14"/>
-    <sheet name="Profitability" sheetId="7" r:id="rId15"/>
-    <sheet name="OciType" sheetId="9" r:id="rId16"/>
-    <sheet name="ValuationApproach" sheetId="11" r:id="rId17"/>
-    <sheet name="RiskDriver" sheetId="14" r:id="rId18"/>
-    <sheet name="ProjectionConfiguration" sheetId="18" r:id="rId19"/>
-    <sheet name="Partner" sheetId="19" r:id="rId20"/>
-    <sheet name="CreditRiskRating" sheetId="21" r:id="rId21"/>
-    <sheet name="YieldCurve" sheetId="22" r:id="rId22"/>
-    <sheet name="ExchangeRate" sheetId="23" r:id="rId23"/>
-    <sheet name="PartnerRating" sheetId="24" r:id="rId24"/>
-    <sheet name="CreditDefaultRate" sheetId="25" r:id="rId25"/>
-    <sheet name="PartitionByReportingNodeAndPeri" sheetId="26" r:id="rId26"/>
-    <sheet name="PartitionByReportingNode" sheetId="27" r:id="rId27"/>
-    <sheet name="ignore_SystemSheet" sheetId="28" state="veryHidden" r:id="rId28"/>
-    <sheet name="AmountType" sheetId="29" r:id="rId29"/>
+    <sheet name="BsVariableType" sheetId="30" r:id="rId14"/>
+    <sheet name="Novelty" sheetId="17" r:id="rId15"/>
+    <sheet name="Profitability" sheetId="7" r:id="rId16"/>
+    <sheet name="OciType" sheetId="9" r:id="rId17"/>
+    <sheet name="ValuationApproach" sheetId="11" r:id="rId18"/>
+    <sheet name="RiskDriver" sheetId="14" r:id="rId19"/>
+    <sheet name="ProjectionConfiguration" sheetId="18" r:id="rId20"/>
+    <sheet name="Partner" sheetId="19" r:id="rId21"/>
+    <sheet name="CreditRiskRating" sheetId="21" r:id="rId22"/>
+    <sheet name="YieldCurve" sheetId="22" r:id="rId23"/>
+    <sheet name="ExchangeRate" sheetId="23" r:id="rId24"/>
+    <sheet name="PartnerRating" sheetId="24" r:id="rId25"/>
+    <sheet name="CreditDefaultRate" sheetId="25" r:id="rId26"/>
+    <sheet name="ignore_SystemSheet" sheetId="28" state="veryHidden" r:id="rId27"/>
+    <sheet name="AmountType" sheetId="29" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="AmountType_DisplayName">AmountType!$B$2:$B$18</definedName>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="350">
   <si>
     <t>SystemName</t>
   </si>
@@ -538,9 +537,6 @@
     <t>Advance Actuals</t>
   </si>
   <si>
-    <t>Opening, Actual</t>
-  </si>
-  <si>
     <t>OA</t>
   </si>
   <si>
@@ -1078,21 +1074,6 @@
     <t>CreditRiskRating</t>
   </si>
   <si>
-    <t>ReportingNode</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>AAAAEAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>AAAAIAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAQ</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -1114,27 +1095,6 @@
     <t>CH</t>
   </si>
   <si>
-    <t>00000000-0000-0000-0000-000000000003</t>
-  </si>
-  <si>
-    <t>00000000-0000-0000-0000-000000000002</t>
-  </si>
-  <si>
-    <t>60000000-0000-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>30000000-0000-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>40000000-0000-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>50000000-0000-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>70000000-0000-0000-0000-000000000001</t>
-  </si>
-  <si>
     <t>RCU</t>
   </si>
   <si>
@@ -1156,10 +1116,25 @@
     <t>NFMC</t>
   </si>
   <si>
-    <t>80000000-0000-0000-0000-000000000001</t>
-  </si>
-  <si>
     <t>Non Financial Model Correction</t>
+  </si>
+  <si>
+    <t>CoverageUnit</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Changes in Balance</t>
+  </si>
+  <si>
+    <t>IFIE3</t>
+  </si>
+  <si>
+    <t>FX Changes</t>
+  </si>
+  <si>
+    <t>OCI3</t>
   </si>
 </sst>
 </file>
@@ -1175,13 +1150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,8 +1168,20 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1200,138 +1189,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="111">
     <dxf>
       <font>
         <sz val="11"/>
@@ -3014,27 +2927,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_ReportingNode" displayName="Table_ReportingNode" ref="A1:D4" totalsRowShown="0">
   <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SystemName" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DisplayName" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Parent" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Currency" dataDxfId="115"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SystemName" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DisplayName" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Parent" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Currency" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table_EstimateType" displayName="Table_EstimateType" ref="A1:H16" totalsRowShown="0">
-  <autoFilter ref="A1:H16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SystemName" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="DisplayName" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="InputSource" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="StructureType" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Order" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="ExternalId0" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="ExternalId1" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="ExternalId2" dataDxfId="65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table_EstimateType" displayName="Table_EstimateType" ref="A1:I17" totalsRowShown="0">
+  <autoFilter ref="A1:I17" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SystemName" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="DisplayName" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="InputSource" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="StructureType" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{BC552C93-4D42-4CF0-AB02-A0BB2BE0290E}" name="PeriodType"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Order" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="ExternalId0" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="ExternalId1" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="ExternalId2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3044,8 +2958,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table_EconomicBasis" displayName="Table_EconomicBasis" ref="A1:B4" totalsRowShown="0">
   <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SystemName" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="DisplayName" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SystemName" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="DisplayName" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3055,21 +2969,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table_Currency" displayName="Table_Currency" ref="A1:B10" totalsRowShown="0">
   <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="SystemName" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="DisplayName" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="SystemName" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="DisplayName" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table_PnlVariableType" displayName="Table_PnlVariableType" ref="A1:D30" totalsRowShown="0">
-  <autoFilter ref="A1:D30" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table_PnlVariableType" displayName="Table_PnlVariableType" ref="A1:D32" totalsRowShown="0">
+  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="SystemName" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="DisplayName" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Parent" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Order" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="SystemName" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="DisplayName" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Parent" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Order" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3079,9 +2993,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table_Novelty" displayName="Table_Novelty" ref="A1:C4" totalsRowShown="0">
   <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SystemName" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="DisplayName" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Order" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SystemName" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="DisplayName" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Order" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3091,8 +3005,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_Profitability" displayName="Table_Profitability" ref="A1:B4" totalsRowShown="0">
   <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SystemName" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="DisplayName" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SystemName" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="DisplayName" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3102,8 +3016,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_OciType" displayName="Table_OciType" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SystemName" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DisplayName" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SystemName" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DisplayName" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3113,8 +3027,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table_ValuationApproach" displayName="Table_ValuationApproach" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SystemName" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="DisplayName" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SystemName" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="DisplayName" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3124,10 +3038,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table_RiskDriver" displayName="Table_RiskDriver" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="SystemName" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="DisplayName" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Parent" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Order" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="SystemName" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="DisplayName" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Parent" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Order" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3137,10 +3051,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table_ProjectionConfiguration" displayName="Table_ProjectionConfiguration" ref="A1:D21" totalsRowShown="0">
   <autoFilter ref="A1:D21" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SystemName" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="DisplayName" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Shift" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="TimeStep" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SystemName" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="DisplayName" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Shift" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="TimeStep" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3150,10 +3064,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_AocType" displayName="Table_AocType" ref="A1:D19" totalsRowShown="0">
   <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SystemName" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DisplayName" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Parent" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Order" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SystemName" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DisplayName" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Parent" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Order" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3163,8 +3077,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table_Partner" displayName="Table_Partner" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="SystemName" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="DisplayName" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="SystemName" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="DisplayName" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3174,8 +3088,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table_CreditRiskRating" displayName="Table_CreditRiskRating" ref="A1:B23" totalsRowShown="0">
   <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="SystemName" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="DisplayName" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="SystemName" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="DisplayName" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3185,14 +3099,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table_YieldCurve" displayName="Table_YieldCurve" ref="A1:H8" totalsRowShown="0">
   <autoFilter ref="A1:H8" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Currency" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Year" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Month" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Scenario" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Values0" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="Values1" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Values2" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Values3" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Currency" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Year" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Month" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Scenario" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Values0" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="Values1" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Values2" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Values3" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3202,11 +3116,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table_ExchangeRate" displayName="Table_ExchangeRate" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Currency" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Year" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Month" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="FxType" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="FxToGroupCurrency" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Currency" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Year" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Month" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="FxType" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="FxToGroupCurrency" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3216,10 +3130,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table_PartnerRating" displayName="Table_PartnerRating" ref="A1:D3" totalsRowShown="0">
   <autoFilter ref="A1:D3" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Partner" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="CreditRiskRating" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Year" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Month" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Partner" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="CreditRiskRating" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Year" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Month" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3229,42 +3143,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table_CreditDefaultRate" displayName="Table_CreditDefaultRate" ref="A1:D22" totalsRowShown="0">
   <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="CreditRiskRating" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Year" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Month" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Values0" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="CreditRiskRating" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Year" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Month" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Values0" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table_PartitionByReportingNodeAndPeri" displayName="Table_PartitionByReportingNodeAndPeri" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="ReportingNode" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Year" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Month" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Scenario" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="Id" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table_PartitionByReportingNode" displayName="Table_PartitionByReportingNode" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="ReportingNode" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="Scenario" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Id" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table_AmountType" displayName="Table_AmountType" ref="A1:G18" totalsRowShown="0">
   <autoFilter ref="A1:G18" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="7">
@@ -3284,12 +3172,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_DeferrableAmountType" displayName="Table_DeferrableAmountType" ref="A1:F3" totalsRowShown="0">
   <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SystemName" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DisplayName" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Parent" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PeriodType" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Order" dataDxfId="106"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ExternalId0" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SystemName" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DisplayName" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Parent" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PeriodType" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Order" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ExternalId0" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3299,13 +3187,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_PvAmountType" displayName="Table_PvAmountType" ref="A1:G16" totalsRowShown="0">
   <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SystemName" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DisplayName" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Parent" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="PeriodType" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Order" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ExternalId0" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="ExternalId1" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SystemName" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DisplayName" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Parent" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="PeriodType" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Order" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ExternalId0" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="ExternalId1" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3315,21 +3203,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_CalculationType" displayName="Table_CalculationType" ref="A1:D4" totalsRowShown="0">
   <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SystemName" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DisplayName" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="PeriodType" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Order" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SystemName" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DisplayName" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="PeriodType" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Order" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_Scenario" displayName="Table_Scenario" ref="A1:B2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_Scenario" displayName="Table_Scenario" ref="A1:B2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SystemName" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="DisplayName" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SystemName" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="DisplayName" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3339,9 +3227,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_LiabilityType" displayName="Table_LiabilityType" ref="A1:C3" totalsRowShown="0">
   <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SystemName" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="DisplayName" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Parent" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SystemName" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="DisplayName" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Parent" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3351,10 +3239,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_LineOfBusiness" displayName="Table_LineOfBusiness" ref="A1:D16" totalsRowShown="0">
   <autoFilter ref="A1:D16" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SystemName" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="DisplayName" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Parent" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Order" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SystemName" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="DisplayName" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Parent" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Order" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3364,18 +3252,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table_AocConfiguration" displayName="Table_AocConfiguration" ref="A1:L23" totalsRowShown="0">
   <autoFilter ref="A1:L23" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Year" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Month" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="AocType" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Novelty" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="DataType" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="InputSource" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="FxPeriod" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="YcPeriod" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="CdrPeriod" dataDxfId="76"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="ValuationPeriod" dataDxfId="75"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="RcPeriod" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="Order" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Year" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Month" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="AocType" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Novelty" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="DataType" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="InputSource" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="FxPeriod" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="YcPeriod" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="CdrPeriod" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="ValuationPeriod" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="RcPeriod" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="Order" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3681,10 +3569,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -3692,7 +3580,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3717,23 +3605,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3760,22 +3648,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886F433C-5BBF-461A-9D95-F73E178837C6}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3789,295 +3680,363 @@
         <v>133</v>
       </c>
       <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
-        <v>136</v>
+      <c r="C2" s="1">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>137</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>136</v>
+      <c r="C3" s="1">
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>138</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>139</v>
       </c>
-      <c r="C4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" t="s">
-        <v>140</v>
+      <c r="C5" s="1">
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>137</v>
       </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>137</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
         <v>145</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>146</v>
       </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>147</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
         <v>148</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" t="s">
-        <v>150</v>
+      <c r="C9" s="1">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="E9">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
+      <c r="E9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>137</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
         <v>155</v>
       </c>
-      <c r="B11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
+      <c r="C12" s="1">
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>147</v>
       </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>147</v>
       </c>
-      <c r="E13">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>147</v>
       </c>
-      <c r="E14">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>147</v>
       </c>
-      <c r="E15">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
+        <v>155</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>147</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H16" numberStoredAsText="1" calculatedColumn="1"/>
+    <ignoredError sqref="F5:I17 F1:I3 A1:D1 A5:B17 A2:B3 D2:D3 D5:D17" numberStoredAsText="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4091,13 +4050,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4105,28 +4064,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
       </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4146,13 +4105,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4160,76 +4119,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
         <v>168</v>
       </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>171</v>
       </c>
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>175</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>177</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>179</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>181</v>
-      </c>
-      <c r="B10" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4245,11 +4204,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760D482E-04D7-432C-B928-90C8D6C7EC2D}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
@@ -4257,7 +4218,7 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4271,413 +4232,441 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>184</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" t="s">
         <v>186</v>
       </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
         <v>188</v>
       </c>
-      <c r="B5" t="s">
-        <v>189</v>
-      </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
         <v>190</v>
       </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
         <v>193</v>
       </c>
-      <c r="B8" t="s">
-        <v>194</v>
-      </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
         <v>195</v>
       </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
         <v>197</v>
       </c>
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
         <v>199</v>
       </c>
-      <c r="B11" t="s">
-        <v>200</v>
-      </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
         <v>201</v>
       </c>
-      <c r="B12" t="s">
-        <v>202</v>
-      </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
         <v>203</v>
       </c>
-      <c r="B13" t="s">
-        <v>204</v>
-      </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
         <v>205</v>
       </c>
-      <c r="B14" t="s">
-        <v>206</v>
-      </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" t="s">
         <v>208</v>
       </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" t="s">
         <v>210</v>
       </c>
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="B19" t="s">
-        <v>214</v>
-      </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" t="s">
         <v>215</v>
       </c>
-      <c r="B20" t="s">
-        <v>216</v>
-      </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s">
         <v>217</v>
       </c>
-      <c r="B21" t="s">
-        <v>218</v>
-      </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
         <v>219</v>
       </c>
-      <c r="B22" t="s">
-        <v>220</v>
-      </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
         <v>221</v>
       </c>
-      <c r="B23" t="s">
-        <v>222</v>
-      </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" t="s">
         <v>223</v>
       </c>
-      <c r="B24" t="s">
-        <v>224</v>
-      </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
         <v>225</v>
       </c>
-      <c r="B25" t="s">
-        <v>226</v>
-      </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" t="s">
         <v>227</v>
       </c>
-      <c r="B26" t="s">
-        <v>228</v>
-      </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" t="s">
         <v>229</v>
       </c>
-      <c r="B27" t="s">
-        <v>230</v>
-      </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" t="s">
         <v>231</v>
       </c>
-      <c r="B28" t="s">
-        <v>232</v>
-      </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
         <v>233</v>
       </c>
-      <c r="B29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30">
+      <c r="B31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31">
         <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="8">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D30" numberStoredAsText="1" calculatedColumn="1"/>
+    <ignoredError sqref="A30:D31 A1:D28" numberStoredAsText="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4686,19 +4675,60 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E6613D-07F5-4C80-9AC9-453678A7ABE8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CCA81B-E443-4840-9786-85BDA5E673DF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4709,34 +4739,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
         <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>236</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -4753,19 +4783,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA35E4B8-B1E1-45B5-B76F-3B8FEF7B482C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4773,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4781,7 +4811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -4789,7 +4819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -4808,7 +4838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B26FC9-3812-4A6F-8EC9-87990BE8BFA4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4816,13 +4846,13 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4830,51 +4860,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B2" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DFB62F-2283-44A6-81D3-6ED944A136B7}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4889,12 +4880,51 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DFB62F-2283-44A6-81D3-6ED944A136B7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:B2" numberStoredAsText="1" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF06DAD-31CE-4C37-A24C-FCDDCBF6CDF4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -4902,7 +4932,7 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4916,7 +4946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -4943,342 +4973,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CAB1B9-25A9-4A83-A607-5499FB6F2EFA}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17">
-        <v>48</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>273</v>
-      </c>
-      <c r="B18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B19" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19">
-        <v>120</v>
-      </c>
-      <c r="D19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C20">
-        <v>180</v>
-      </c>
-      <c r="D20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21">
-        <v>240</v>
-      </c>
-      <c r="D21">
-        <v>9999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D21" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDED30D7-708A-49B4-A085-2E822AA47516}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5292,7 +5003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5303,7 +5014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5314,43 +5025,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5361,7 +5072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -5372,7 +5083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5383,7 +5094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5394,7 +5105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5408,7 +5119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -5422,7 +5133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5433,7 +5144,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5444,7 +5155,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5455,7 +5166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5466,7 +5177,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -5477,7 +5188,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -5488,7 +5199,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -5516,18 +5227,337 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CAB1B9-25A9-4A83-A607-5499FB6F2EFA}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20">
+        <v>180</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D21" numberStoredAsText="1" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C18D12-00B8-4BD2-91CC-A8C20BF1D83C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5535,12 +5565,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
         <v>281</v>
-      </c>
-      <c r="B2" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5554,19 +5584,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D0A355-E779-4D72-B9AC-17A23CF0608F}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5574,23 +5604,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>302</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -5598,143 +5628,143 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
         <v>304</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
         <v>305</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
         <v>306</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
         <v>307</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
         <v>308</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>309</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
         <v>310</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
         <v>311</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
         <v>312</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
         <v>313</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
         <v>314</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
         <v>315</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
         <v>316</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
         <v>317</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
         <v>318</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>319</v>
-      </c>
-      <c r="B21" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -5742,12 +5772,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5761,13 +5791,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31EE933-7D61-487C-A98B-5F8C139E04E0}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -5776,33 +5806,33 @@
     <col min="5" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
         <v>283</v>
       </c>
-      <c r="C1" t="s">
-        <v>284</v>
-      </c>
       <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
         <v>320</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>321</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>322</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>323</v>
       </c>
-      <c r="H1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5825,7 +5855,7 @@
         <v>1.9966839E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5848,7 +5878,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5871,9 +5901,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -5894,9 +5924,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>2020</v>
@@ -5917,7 +5947,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5940,7 +5970,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5982,13 +6012,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA53DDB-7E99-42F2-9632-D916B179A102}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -5997,24 +6027,24 @@
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
         <v>283</v>
       </c>
-      <c r="C1" t="s">
-        <v>284</v>
-      </c>
       <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
         <v>325</v>
       </c>
-      <c r="E1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -6025,13 +6055,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2">
         <v>1.2012</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6042,13 +6072,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E3">
         <v>1.2013</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6059,13 +6089,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4">
         <v>1.2014</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6076,15 +6106,15 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E5">
         <v>1.2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -6093,15 +6123,15 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6">
         <v>1.2016</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -6110,15 +6140,15 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E7">
         <v>1.2017</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <v>2020</v>
@@ -6127,15 +6157,15 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8">
         <v>1.2018</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -6144,13 +6174,13 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E9">
         <v>1.2019</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6161,13 +6191,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10">
         <v>1.4016</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6178,13 +6208,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11">
         <v>1.4016999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6195,13 +6225,13 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12">
         <v>1.4017999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6212,7 +6242,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E13">
         <v>1.4018999999999999</v>
@@ -6237,13 +6267,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F77A3-F7CA-4919-83B1-B1D76F306945}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -6251,26 +6281,26 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" t="s">
         <v>328</v>
       </c>
-      <c r="B1" t="s">
-        <v>329</v>
-      </c>
       <c r="C1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" t="s">
         <v>283</v>
       </c>
-      <c r="D1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -6279,12 +6309,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -6315,13 +6345,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83D747D-AAA9-45E4-AFCE-487177603D43}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -6329,23 +6359,23 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
         <v>283</v>
       </c>
-      <c r="C1" t="s">
-        <v>284</v>
-      </c>
       <c r="D1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2">
         <v>1900</v>
@@ -6357,9 +6387,9 @@
         <v>1.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3">
         <v>1900</v>
@@ -6371,7 +6401,7 @@
         <v>2.42487E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -6385,9 +6415,9 @@
         <v>4.2000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5">
         <v>1900</v>
@@ -6399,9 +6429,9 @@
         <v>4.6984899999999999E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6">
         <v>1900</v>
@@ -6413,9 +6443,9 @@
         <v>5.25615E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>1900</v>
@@ -6427,9 +6457,9 @@
         <v>5.8799999999999998E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8">
         <v>1900</v>
@@ -6441,9 +6471,9 @@
         <v>8.5361499999999995E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9">
         <v>1900</v>
@@ -6455,9 +6485,9 @@
         <v>1.2392150000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10">
         <v>1900</v>
@@ -6469,9 +6499,9 @@
         <v>1.799E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11">
         <v>1900</v>
@@ -6483,9 +6513,9 @@
         <v>2.97649E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12">
         <v>1900</v>
@@ -6497,9 +6527,9 @@
         <v>4.9246769999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13">
         <v>1900</v>
@@ -6511,9 +6541,9 @@
         <v>8.1480000000000007E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14">
         <v>1900</v>
@@ -6525,9 +6555,9 @@
         <v>1.1522675E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B15">
         <v>1900</v>
@@ -6539,9 +6569,9 @@
         <v>1.6295046000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B16">
         <v>1900</v>
@@ -6553,9 +6583,9 @@
         <v>2.3043999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B17">
         <v>1900</v>
@@ -6567,9 +6597,9 @@
         <v>3.1505633999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18">
         <v>1900</v>
@@ -6581,9 +6611,9 @@
         <v>4.3074333999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B19">
         <v>1900</v>
@@ -6595,9 +6625,9 @@
         <v>5.8890999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B20">
         <v>1900</v>
@@ -6609,9 +6639,9 @@
         <v>7.9972326999999996E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B21">
         <v>1900</v>
@@ -6623,7 +6653,7 @@
         <v>0.10860017900000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -6656,249 +6686,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A96BB47-7C72-47C1-9010-A0A2E5827E8B}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2021</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4">
-        <v>2021</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5">
-        <v>2022</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2021</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>2022</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2021</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>2022</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" sqref="A2:A9" xr:uid="{00000000-0002-0000-1900-000000000000}">
-      <formula1>ReportingNode_SystemName</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D9" xr:uid="{00000000-0002-0000-1900-000001000000}">
-      <formula1>Scenario_SystemName</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:E1 B2:E2 B3:E3" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FEBB2D-27BA-42BA-A06F-B1D9DBD078F3}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" sqref="A2:A4" xr:uid="{00000000-0002-0000-1A00-000000000000}">
-      <formula1>ReportingNode_SystemName</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-1A00-000001000000}">
-      <formula1>Scenario_SystemName</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:C1 B2:C2" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D8160-E345-430E-844D-6A826662EE9C}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -6907,27 +6701,27 @@
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
         <v>283</v>
       </c>
-      <c r="B1" t="s">
-        <v>284</v>
-      </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1970</v>
       </c>
@@ -6938,16 +6732,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1971</v>
       </c>
@@ -6958,16 +6752,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1972</v>
       </c>
@@ -6981,7 +6775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1973</v>
       </c>
@@ -6995,7 +6789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1974</v>
       </c>
@@ -7006,7 +6800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1975</v>
       </c>
@@ -7014,7 +6808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1976</v>
       </c>
@@ -7022,7 +6816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1977</v>
       </c>
@@ -7030,7 +6824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>1978</v>
       </c>
@@ -7038,7 +6832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>1979</v>
       </c>
@@ -7046,7 +6840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>1980</v>
       </c>
@@ -7054,7 +6848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>1981</v>
       </c>
@@ -7062,457 +6856,457 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>1982</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>1983</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>1984</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>1985</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1986</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>1987</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>1988</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>1989</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>1990</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>1991</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>1992</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>1993</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>1994</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>1995</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>1996</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>1997</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>1998</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>1999</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>2001</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>2002</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>2003</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>2004</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>2005</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>2006</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>2007</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>2009</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>2010</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>2012</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>2013</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>2014</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>2016</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>2022</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>2025</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>2026</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>2027</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>2028</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>2029</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>2030</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>2031</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>2032</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>2033</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>2034</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>2035</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>2036</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>2037</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>2038</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>2039</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>2040</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>2041</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>2042</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>2043</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>2044</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>2045</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>2046</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>2047</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>2048</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>2049</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>2050</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>2051</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>2052</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>2053</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>2054</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>2055</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>2056</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>2057</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>2059</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>2060</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>2061</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>2062</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>2063</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>2064</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>2065</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>2066</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>2067</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>2068</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>2069</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>2070</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>2071</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>2072</v>
       </c>
@@ -7530,13 +7324,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891D7A09-592A-4A19-9E69-532959FF76BD}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
@@ -7547,7 +7341,7 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7570,7 +7364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -7590,7 +7384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7604,7 +7398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -7627,7 +7421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -7650,7 +7444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -7667,7 +7461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -7684,7 +7478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -7701,7 +7495,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -7718,7 +7512,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -7732,7 +7526,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -7749,7 +7543,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -7766,7 +7560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -7780,7 +7574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -7794,7 +7588,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -7811,7 +7605,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -7828,7 +7622,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -7842,7 +7636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -7882,7 +7676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -7892,7 +7686,7 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7912,7 +7706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7926,7 +7720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -7965,7 +7759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
@@ -7976,7 +7770,7 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7999,7 +7793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -8019,7 +7813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -8033,7 +7827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -8056,7 +7850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -8079,7 +7873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -8096,7 +7890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -8113,7 +7907,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -8130,7 +7924,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -8147,7 +7941,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -8161,7 +7955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -8178,7 +7972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -8195,7 +7989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -8209,7 +8003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -8223,7 +8017,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -8240,7 +8034,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -8279,7 +8073,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -8287,7 +8081,7 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8301,7 +8095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -8315,7 +8109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -8329,7 +8123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -8356,36 +8150,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6085F575-8EC4-4744-BA59-22D8D4AF945F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B2" numberStoredAsText="1" calculatedColumn="1"/>
+    <ignoredError sqref="A1:B1" numberStoredAsText="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8399,14 +8187,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8417,7 +8205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -8425,7 +8213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -8455,7 +8243,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
@@ -8463,7 +8251,7 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8477,7 +8265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -8488,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -8502,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -8516,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -8530,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -8544,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -8558,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -8572,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -8586,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -8600,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -8614,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -8628,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -8642,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -8656,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -8670,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -8705,14 +8493,14 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.8203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.17578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
@@ -8720,45 +8508,45 @@
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
         <v>283</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>284</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>285</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>286</v>
-      </c>
-      <c r="E1" t="s">
-        <v>287</v>
       </c>
       <c r="F1" t="s">
         <v>132</v>
       </c>
       <c r="G1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" t="s">
         <v>288</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>289</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>291</v>
-      </c>
-      <c r="K1" t="s">
-        <v>292</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1900</v>
       </c>
@@ -8769,10 +8557,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
         <v>140</v>
@@ -8796,7 +8584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -8807,10 +8595,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
         <v>136</v>
@@ -8834,7 +8622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1900</v>
       </c>
@@ -8842,13 +8630,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
         <v>136</v>
@@ -8872,7 +8660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>1900</v>
       </c>
@@ -8880,13 +8668,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>136</v>
@@ -8910,7 +8698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1900</v>
       </c>
@@ -8921,25 +8709,25 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
         <v>136</v>
       </c>
       <c r="G6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" t="s">
         <v>295</v>
-      </c>
-      <c r="H6" t="s">
-        <v>296</v>
       </c>
       <c r="I6" t="s">
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -8948,7 +8736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1900</v>
       </c>
@@ -8959,16 +8747,16 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" t="s">
         <v>294</v>
-      </c>
-      <c r="F7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G7" t="s">
-        <v>295</v>
       </c>
       <c r="H7" t="s">
         <v>50</v>
@@ -8977,7 +8765,7 @@
         <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -8986,7 +8774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1900</v>
       </c>
@@ -8997,10 +8785,10 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
         <v>136</v>
@@ -9024,7 +8812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1900</v>
       </c>
@@ -9035,10 +8823,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
         <v>136</v>
@@ -9062,7 +8850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>1900</v>
       </c>
@@ -9073,10 +8861,10 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
         <v>136</v>
@@ -9100,7 +8888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>1900</v>
       </c>
@@ -9111,10 +8899,10 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
         <v>136</v>
@@ -9138,7 +8926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>1900</v>
       </c>
@@ -9149,16 +8937,16 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
         <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
@@ -9176,7 +8964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>1900</v>
       </c>
@@ -9187,25 +8975,25 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
         <v>136</v>
       </c>
       <c r="G13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" t="s">
         <v>295</v>
-      </c>
-      <c r="H13" t="s">
-        <v>296</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K13" t="s">
         <v>44</v>
@@ -9214,7 +9002,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>1900</v>
       </c>
@@ -9225,16 +9013,16 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
         <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -9243,7 +9031,7 @@
         <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K14" t="s">
         <v>44</v>
@@ -9252,7 +9040,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>1900</v>
       </c>
@@ -9263,10 +9051,10 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -9290,7 +9078,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>1900</v>
       </c>
@@ -9301,10 +9089,10 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F16" t="s">
         <v>136</v>
@@ -9328,7 +9116,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>1900</v>
       </c>
@@ -9342,31 +9130,31 @@
         <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" t="s">
         <v>295</v>
       </c>
-      <c r="H17" t="s">
-        <v>296</v>
-      </c>
       <c r="I17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L17">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1900</v>
       </c>
@@ -9380,31 +9168,31 @@
         <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" t="s">
         <v>295</v>
       </c>
-      <c r="H18" t="s">
-        <v>296</v>
-      </c>
       <c r="I18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L18">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>1900</v>
       </c>
@@ -9418,7 +9206,7 @@
         <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -9442,7 +9230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -9456,7 +9244,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
         <v>136</v>
@@ -9465,13 +9253,13 @@
         <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
         <v>44</v>
@@ -9480,7 +9268,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -9494,22 +9282,22 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>44</v>
@@ -9518,7 +9306,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>1900</v>
       </c>
@@ -9532,31 +9320,31 @@
         <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L22">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>1900</v>
       </c>
@@ -9570,10 +9358,10 @@
         <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>

--- a/PresentValueSeries/Dimensions.xlsx
+++ b/PresentValueSeries/Dimensions.xlsx
@@ -3,47 +3,40 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12672CD4-03D8-4FAD-87B4-1068DAD82F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EEC460-C61E-40BA-8D97-5FB7A26F8E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="1" r:id="rId1"/>
     <sheet name="AocType" sheetId="2" r:id="rId2"/>
     <sheet name="DeferrableAmountType" sheetId="3" r:id="rId3"/>
-    <sheet name="PvAmountType" sheetId="4" r:id="rId4"/>
-    <sheet name="CalculationType" sheetId="5" r:id="rId5"/>
-    <sheet name="Scenario" sheetId="6" r:id="rId6"/>
-    <sheet name="LiabilityType" sheetId="8" r:id="rId7"/>
-    <sheet name="LineOfBusiness" sheetId="10" r:id="rId8"/>
-    <sheet name="AocConfiguration" sheetId="20" r:id="rId9"/>
-    <sheet name="EstimateType" sheetId="12" r:id="rId10"/>
-    <sheet name="EconomicBasis" sheetId="13" r:id="rId11"/>
-    <sheet name="Currency" sheetId="15" r:id="rId12"/>
-    <sheet name="PnlVariableType" sheetId="16" r:id="rId13"/>
-    <sheet name="BsVariableType" sheetId="30" r:id="rId14"/>
-    <sheet name="Novelty" sheetId="17" r:id="rId15"/>
-    <sheet name="Profitability" sheetId="7" r:id="rId16"/>
-    <sheet name="OciType" sheetId="9" r:id="rId17"/>
-    <sheet name="ValuationApproach" sheetId="11" r:id="rId18"/>
-    <sheet name="RiskDriver" sheetId="14" r:id="rId19"/>
-    <sheet name="ProjectionConfiguration" sheetId="18" r:id="rId20"/>
-    <sheet name="Partner" sheetId="19" r:id="rId21"/>
-    <sheet name="CreditRiskRating" sheetId="21" r:id="rId22"/>
-    <sheet name="YieldCurve" sheetId="22" r:id="rId23"/>
-    <sheet name="ExchangeRate" sheetId="23" r:id="rId24"/>
-    <sheet name="PartnerRating" sheetId="24" r:id="rId25"/>
-    <sheet name="CreditDefaultRate" sheetId="25" r:id="rId26"/>
-    <sheet name="ignore_SystemSheet" sheetId="28" state="veryHidden" r:id="rId27"/>
-    <sheet name="AmountType" sheetId="29" r:id="rId28"/>
+    <sheet name="AmountType" sheetId="4" r:id="rId4"/>
+    <sheet name="Scenario" sheetId="6" r:id="rId5"/>
+    <sheet name="LiabilityType" sheetId="8" r:id="rId6"/>
+    <sheet name="LineOfBusiness" sheetId="10" r:id="rId7"/>
+    <sheet name="AocConfiguration" sheetId="20" r:id="rId8"/>
+    <sheet name="EstimateType" sheetId="12" r:id="rId9"/>
+    <sheet name="EconomicBasis" sheetId="13" r:id="rId10"/>
+    <sheet name="Currency" sheetId="15" r:id="rId11"/>
+    <sheet name="PnlVariableType" sheetId="16" r:id="rId12"/>
+    <sheet name="BsVariableType" sheetId="30" r:id="rId13"/>
+    <sheet name="Novelty" sheetId="17" r:id="rId14"/>
+    <sheet name="Profitability" sheetId="7" r:id="rId15"/>
+    <sheet name="OciType" sheetId="9" r:id="rId16"/>
+    <sheet name="ValuationApproach" sheetId="11" r:id="rId17"/>
+    <sheet name="RiskDriver" sheetId="14" r:id="rId18"/>
+    <sheet name="ProjectionConfiguration" sheetId="18" r:id="rId19"/>
+    <sheet name="ExchangeRate" sheetId="23" r:id="rId20"/>
+    <sheet name="ignore_SystemSheet" sheetId="28" state="veryHidden" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="AmountType_DisplayName">AmountType!$B$2:$B$18</definedName>
-    <definedName name="AmountType_SystemName">AmountType!$A$2:$A$18</definedName>
+    <definedName name="AmountType_DisplayName">#REF!</definedName>
+    <definedName name="AmountType_SystemName">#REF!</definedName>
     <definedName name="AocType_DisplayName">AocType!$B$2:$B$19</definedName>
     <definedName name="AocType_SystemName">AocType!$A$2:$A$19</definedName>
-    <definedName name="CreditRiskRating_DisplayName">CreditRiskRating!$B$2:$B$23</definedName>
-    <definedName name="CreditRiskRating_SystemName">CreditRiskRating!$A$2:$A$23</definedName>
+    <definedName name="CreditRiskRating_DisplayName">#REF!</definedName>
+    <definedName name="CreditRiskRating_SystemName">#REF!</definedName>
     <definedName name="Currency_DisplayName">Currency!$B$2:$B$10</definedName>
     <definedName name="Currency_SystemName">Currency!$A$2:$A$10</definedName>
     <definedName name="ignore_SystemSheet_Boolean">ignore_SystemSheet!$D$2:$D$3</definedName>
@@ -58,8 +51,8 @@
     <definedName name="LineOfBusiness_SystemName">LineOfBusiness!$A$2:$A$16</definedName>
     <definedName name="Novelty_DisplayName">Novelty!$B$2:$B$4</definedName>
     <definedName name="Novelty_SystemName">Novelty!$A$2:$A$4</definedName>
-    <definedName name="Partner_DisplayName">Partner!$B$2:$B$2</definedName>
-    <definedName name="Partner_SystemName">Partner!$A$2:$A$2</definedName>
+    <definedName name="Partner_DisplayName">#REF!</definedName>
+    <definedName name="Partner_SystemName">#REF!</definedName>
     <definedName name="ReportingNode_DisplayName">ReportingNode!$B$2:$B$4</definedName>
     <definedName name="ReportingNode_SystemName">ReportingNode!$A$2:$A$4</definedName>
     <definedName name="RiskDriver_DisplayName">RiskDriver!$B$2:$B$2</definedName>
@@ -85,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="321">
   <si>
     <t>SystemName</t>
   </si>
@@ -339,9 +332,6 @@
     <t>BE</t>
   </si>
   <si>
-    <t>Best Estimate</t>
-  </si>
-  <si>
     <t>RA</t>
   </si>
   <si>
@@ -351,9 +341,6 @@
     <t>CU</t>
   </si>
   <si>
-    <t>Coverage Unit</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -927,12 +914,6 @@
     <t>Years Over +20</t>
   </si>
   <si>
-    <t>PT1</t>
-  </si>
-  <si>
-    <t>Partner1</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -990,75 +971,6 @@
     <t>Actual, Cashflow</t>
   </si>
   <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>AA-</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>BBB+</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>BBB-</t>
-  </si>
-  <si>
-    <t>BB+</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>BB-</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>CCC+</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>CCC-</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Values0</t>
-  </si>
-  <si>
-    <t>Values1</t>
-  </si>
-  <si>
-    <t>Values2</t>
-  </si>
-  <si>
-    <t>Values3</t>
-  </si>
-  <si>
     <t>FxType</t>
   </si>
   <si>
@@ -1066,12 +978,6 @@
   </si>
   <si>
     <t>Spot</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>CreditRiskRating</t>
   </si>
   <si>
     <t>Quarter</t>
@@ -1244,472 +1150,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <font>
         <sz val="11"/>
@@ -2927,134 +2368,130 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_ReportingNode" displayName="Table_ReportingNode" ref="A1:D4" totalsRowShown="0">
   <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SystemName" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DisplayName" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Parent" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Currency" dataDxfId="107"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SystemName" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DisplayName" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Parent" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Currency" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table_EstimateType" displayName="Table_EstimateType" ref="A1:I17" totalsRowShown="0">
-  <autoFilter ref="A1:I17" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SystemName" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="DisplayName" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="InputSource" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="StructureType" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{BC552C93-4D42-4CF0-AB02-A0BB2BE0290E}" name="PeriodType"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Order" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="ExternalId0" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="ExternalId1" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="ExternalId2" dataDxfId="57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table_EconomicBasis" displayName="Table_EconomicBasis" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SystemName" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="DisplayName" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table_EconomicBasis" displayName="Table_EconomicBasis" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table_Currency" displayName="Table_Currency" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SystemName" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="DisplayName" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="SystemName" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="DisplayName" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table_Currency" displayName="Table_Currency" ref="A1:B10" totalsRowShown="0">
-  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="SystemName" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="DisplayName" dataDxfId="53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table_PnlVariableType" displayName="Table_PnlVariableType" ref="A1:D32" totalsRowShown="0">
+  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="SystemName" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="DisplayName" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Parent" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Order" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table_PnlVariableType" displayName="Table_PnlVariableType" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="SystemName" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="DisplayName" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Parent" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Order" dataDxfId="49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table_Novelty" displayName="Table_Novelty" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SystemName" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="DisplayName" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Order" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table_Novelty" displayName="Table_Novelty" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SystemName" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="DisplayName" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Order" dataDxfId="46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_Profitability" displayName="Table_Profitability" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SystemName" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="DisplayName" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_Profitability" displayName="Table_Profitability" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_OciType" displayName="Table_OciType" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SystemName" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="DisplayName" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SystemName" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DisplayName" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_OciType" displayName="Table_OciType" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table_ValuationApproach" displayName="Table_ValuationApproach" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SystemName" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DisplayName" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SystemName" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="DisplayName" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table_ValuationApproach" displayName="Table_ValuationApproach" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SystemName" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="DisplayName" dataDxfId="40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table_RiskDriver" displayName="Table_RiskDriver" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="SystemName" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="DisplayName" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Parent" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Order" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table_RiskDriver" displayName="Table_RiskDriver" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table_ProjectionConfiguration" displayName="Table_ProjectionConfiguration" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="SystemName" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="DisplayName" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Parent" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Order" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SystemName" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="DisplayName" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Shift" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="TimeStep" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table_ProjectionConfiguration" displayName="Table_ProjectionConfiguration" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SystemName" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="DisplayName" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Shift" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="TimeStep" dataDxfId="32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table_ExchangeRate" displayName="Table_ExchangeRate" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Currency" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Year" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Month" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="FxType" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="FxToGroupCurrency" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3064,107 +2501,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_AocType" displayName="Table_AocType" ref="A1:D19" totalsRowShown="0">
   <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SystemName" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DisplayName" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Parent" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Order" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SystemName" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DisplayName" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Parent" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Order" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table_Partner" displayName="Table_Partner" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="SystemName" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="DisplayName" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table_CreditRiskRating" displayName="Table_CreditRiskRating" ref="A1:B23" totalsRowShown="0">
-  <autoFilter ref="A1:B23" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="SystemName" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="DisplayName" dataDxfId="28"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table_YieldCurve" displayName="Table_YieldCurve" ref="A1:H8" totalsRowShown="0">
-  <autoFilter ref="A1:H8" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Currency" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Year" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Month" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Scenario" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Values0" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="Values1" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Values2" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Values3" dataDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table_ExchangeRate" displayName="Table_ExchangeRate" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Currency" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Year" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Month" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="FxType" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="FxToGroupCurrency" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table_PartnerRating" displayName="Table_PartnerRating" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Partner" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="CreditRiskRating" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Year" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Month" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table_CreditDefaultRate" displayName="Table_CreditDefaultRate" ref="A1:D22" totalsRowShown="0">
-  <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="CreditRiskRating" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Year" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Month" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Values0" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table_AmountType" displayName="Table_AmountType" ref="A1:G18" totalsRowShown="0">
-  <autoFilter ref="A1:G18" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="SystemName" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="DisplayName" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Parent" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="PeriodType" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="Order" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="ExternalId0" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1B00-000007000000}" name="ExternalId1" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3172,98 +2514,103 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_DeferrableAmountType" displayName="Table_DeferrableAmountType" ref="A1:F3" totalsRowShown="0">
   <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SystemName" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DisplayName" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Parent" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PeriodType" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Order" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ExternalId0" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SystemName" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DisplayName" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Parent" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PeriodType" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Order" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ExternalId0" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_PvAmountType" displayName="Table_PvAmountType" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_PvAmountType" displayName="Table_PvAmountType" ref="A1:G18" totalsRowShown="0">
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SystemName" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DisplayName" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Parent" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="PeriodType" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Order" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ExternalId0" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="ExternalId1" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SystemName" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DisplayName" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Parent" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="PeriodType" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Order" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ExternalId0" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="ExternalId1" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_CalculationType" displayName="Table_CalculationType" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SystemName" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DisplayName" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="PeriodType" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Order" dataDxfId="86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_Scenario" displayName="Table_Scenario" ref="A1:B2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SystemName" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="DisplayName" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_Scenario" displayName="Table_Scenario" ref="A1:B2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SystemName" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="DisplayName" dataDxfId="84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_LiabilityType" displayName="Table_LiabilityType" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SystemName" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="DisplayName" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Parent" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_LiabilityType" displayName="Table_LiabilityType" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SystemName" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="DisplayName" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Parent" dataDxfId="81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_LineOfBusiness" displayName="Table_LineOfBusiness" ref="A1:D16" totalsRowShown="0">
+  <autoFilter ref="A1:D16" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SystemName" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="DisplayName" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Parent" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Order" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_LineOfBusiness" displayName="Table_LineOfBusiness" ref="A1:D16" totalsRowShown="0">
-  <autoFilter ref="A1:D16" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SystemName" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="DisplayName" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Parent" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Order" dataDxfId="77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table_AocConfiguration" displayName="Table_AocConfiguration" ref="A1:L22" totalsRowShown="0">
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Year" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Month" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="AocType" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Novelty" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="DataType" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="InputSource" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="FxPeriod" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="YcPeriod" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="CdrPeriod" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="ValuationPeriod" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="RcPeriod" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="Order" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table_AocConfiguration" displayName="Table_AocConfiguration" ref="A1:L23" totalsRowShown="0">
-  <autoFilter ref="A1:L23" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Year" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Month" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="AocType" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Novelty" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="DataType" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="InputSource" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="FxPeriod" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="YcPeriod" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="CdrPeriod" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="ValuationPeriod" dataDxfId="67"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="RcPeriod" dataDxfId="66"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="Order" dataDxfId="65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table_EstimateType" displayName="Table_EstimateType" ref="A1:I17" totalsRowShown="0">
+  <autoFilter ref="A1:I17" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SystemName" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="DisplayName" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="InputSource" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="StructureType" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{BC552C93-4D42-4CF0-AB02-A0BB2BE0290E}" name="PeriodType"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Order" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="ExternalId0" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="ExternalId1" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="ExternalId2" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3569,7 +2916,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3610,7 +2957,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -3618,10 +2965,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3647,404 +2994,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886F433C-5BBF-461A-9D95-F73E178837C6}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F14">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F16">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F5:I17 F1:I3 A1:D1 A5:B17 A2:B3 D2:D3 D5:D17" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8A6126-FDCB-4042-B06E-4BB952F01239}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4066,26 +3015,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4099,7 +3048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538F468D-FC82-4AA1-BD93-1B6B5E3DC929}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -4121,10 +3070,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -4132,15 +3081,15 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -4148,7 +3097,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
@@ -4156,39 +3105,39 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4202,7 +3151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760D482E-04D7-432C-B928-90C8D6C7EC2D}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -4234,10 +3183,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4245,13 +3194,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4259,13 +3208,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4273,13 +3222,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -4287,13 +3236,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -4301,13 +3250,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -4315,13 +3264,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -4329,13 +3278,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -4343,13 +3292,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -4357,13 +3306,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -4371,13 +3320,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -4385,13 +3334,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -4399,13 +3348,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -4413,13 +3362,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -4427,13 +3376,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -4441,13 +3390,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -4455,13 +3404,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -4469,13 +3418,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -4483,13 +3432,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -4497,13 +3446,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -4511,13 +3460,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -4525,13 +3474,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -4539,13 +3488,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D24">
         <v>22</v>
@@ -4553,13 +3502,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D25">
         <v>23</v>
@@ -4567,13 +3516,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D26">
         <v>24</v>
@@ -4581,13 +3530,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -4595,13 +3544,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D28">
         <v>26</v>
@@ -4609,13 +3558,13 @@
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D29" s="1">
         <v>27</v>
@@ -4623,13 +3572,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D30">
         <v>27</v>
@@ -4637,13 +3586,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D31">
         <v>28</v>
@@ -4651,13 +3600,13 @@
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D32" s="8">
         <v>30</v>
@@ -4674,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E6613D-07F5-4C80-9AC9-453678A7ABE8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4700,10 +3649,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7">
@@ -4715,7 +3664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CCA81B-E443-4840-9786-85BDA5E673DF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4741,10 +3690,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4752,10 +3701,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -4763,10 +3712,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -4783,7 +3732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA35E4B8-B1E1-45B5-B76F-3B8FEF7B482C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4805,26 +3754,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4838,7 +3787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B26FC9-3812-4A6F-8EC9-87990BE8BFA4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4862,10 +3811,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4879,7 +3828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DFB62F-2283-44A6-81D3-6ED944A136B7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4901,10 +3850,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +3867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF06DAD-31CE-4C37-A24C-FCDDCBF6CDF4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4948,10 +3897,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4966,6 +3915,327 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D2" numberStoredAsText="1" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CAB1B9-25A9-4A83-A607-5499FB6F2EFA}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20">
+        <v>180</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D21" numberStoredAsText="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5027,10 +4297,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -5038,10 +4308,10 @@
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
@@ -5049,13 +4319,13 @@
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -5227,792 +4497,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CAB1B9-25A9-4A83-A607-5499FB6F2EFA}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C17">
-        <v>48</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>272</v>
-      </c>
-      <c r="B18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19">
-        <v>120</v>
-      </c>
-      <c r="D19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20">
-        <v>180</v>
-      </c>
-      <c r="D20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>278</v>
-      </c>
-      <c r="B21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C21">
-        <v>240</v>
-      </c>
-      <c r="D21">
-        <v>9999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D21" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C18D12-00B8-4BD2-91CC-A8C20BF1D83C}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B2" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D0A355-E779-4D72-B9AC-17A23CF0608F}">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>315</v>
-      </c>
-      <c r="B18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>318</v>
-      </c>
-      <c r="B21" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>234</v>
-      </c>
-      <c r="B23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B23" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31EE933-7D61-487C-A98B-5F8C139E04E0}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>8.6854949999999997E-3</v>
-      </c>
-      <c r="F2">
-        <v>8.6854949999999997E-3</v>
-      </c>
-      <c r="G2">
-        <v>1.8498470999999999E-2</v>
-      </c>
-      <c r="H2">
-        <v>1.9966839E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2020</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>2E-3</v>
-      </c>
-      <c r="F3">
-        <v>2E-3</v>
-      </c>
-      <c r="G3">
-        <v>2E-3</v>
-      </c>
-      <c r="H3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2021</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5">
-        <v>2021</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6">
-        <v>2020</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2E-3</v>
-      </c>
-      <c r="F6">
-        <v>2E-3</v>
-      </c>
-      <c r="G6">
-        <v>2E-3</v>
-      </c>
-      <c r="H6">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2021</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>2020</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>2E-3</v>
-      </c>
-      <c r="F8">
-        <v>2E-3</v>
-      </c>
-      <c r="G8">
-        <v>2E-3</v>
-      </c>
-      <c r="H8">
-        <v>2E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" sqref="A2:A8" xr:uid="{00000000-0002-0000-1500-000000000000}">
-      <formula1>Currency_SystemName</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" sqref="B2:C8" xr:uid="{00000000-0002-0000-1500-000001000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:H8" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA53DDB-7E99-42F2-9632-D916B179A102}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -6032,16 +4516,16 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="E1" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -6055,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E2">
         <v>1.2012</v>
@@ -6072,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="E3">
         <v>1.2013</v>
@@ -6089,7 +4573,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E4">
         <v>1.2014</v>
@@ -6106,7 +4590,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="E5">
         <v>1.2015</v>
@@ -6114,7 +4598,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -6123,7 +4607,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E6">
         <v>1.2016</v>
@@ -6131,7 +4615,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -6140,7 +4624,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="E7">
         <v>1.2017</v>
@@ -6148,7 +4632,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8">
         <v>2020</v>
@@ -6157,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E8">
         <v>1.2018</v>
@@ -6165,7 +4649,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -6174,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="E9">
         <v>1.2019</v>
@@ -6191,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E10">
         <v>1.4016</v>
@@ -6208,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="E11">
         <v>1.4016999999999999</v>
@@ -6225,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E12">
         <v>1.4017999999999999</v>
@@ -6242,7 +4726,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="E13">
         <v>1.4018999999999999</v>
@@ -6267,426 +4751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F77A3-F7CA-4919-83B1-B1D76F306945}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2">
-        <v>2020</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" sqref="A2:A3" xr:uid="{00000000-0002-0000-1700-000000000000}">
-      <formula1>Partner_SystemName</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="B2:B3" xr:uid="{00000000-0002-0000-1700-000001000000}">
-      <formula1>CreditRiskRating_SystemName</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" sqref="C2:D3" xr:uid="{00000000-0002-0000-1700-000002000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D3" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83D747D-AAA9-45E4-AFCE-487177603D43}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2">
-        <v>1900</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>1.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3">
-        <v>1900</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>2.42487E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4">
-        <v>1900</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>4.2000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5">
-        <v>1900</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>4.6984899999999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6">
-        <v>1900</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>5.25615E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7">
-        <v>1900</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>5.8799999999999998E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B8">
-        <v>1900</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>8.5361499999999995E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9">
-        <v>1900</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>1.2392150000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10">
-        <v>1900</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>1.799E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B11">
-        <v>1900</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>2.97649E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12">
-        <v>1900</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>4.9246769999999997E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13">
-        <v>1900</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>8.1480000000000007E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14">
-        <v>1900</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>1.1522675E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15">
-        <v>1900</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>1.6295046000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16">
-        <v>1900</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>2.3043999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17">
-        <v>1900</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>3.1505633999999998E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>315</v>
-      </c>
-      <c r="B18">
-        <v>1900</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>4.3074333999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19">
-        <v>1900</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>5.8890999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20">
-        <v>1900</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>7.9972326999999996E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>318</v>
-      </c>
-      <c r="B21">
-        <v>1900</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>0.10860017900000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22">
-        <v>1900</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>0.147476</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" sqref="A2:A22" xr:uid="{00000000-0002-0000-1800-000000000000}">
-      <formula1>CreditRiskRating_SystemName</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" sqref="B2:C22" xr:uid="{00000000-0002-0000-1800-000001000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D22" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D8160-E345-430E-844D-6A826662EE9C}">
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -6703,22 +4768,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="E1" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -6732,10 +4797,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6752,10 +4817,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -7324,357 +5389,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891D7A09-592A-4A19-9E69-532959FF76BD}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="9F8B" sheet="1" objects="1" scenarios="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C18" xr:uid="{00000000-0002-0000-1C00-000000000000}">
-      <formula1>AmountType_SystemName</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:G18" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90D6FDA-5CB2-4E6F-BD5A-98362BAFEEDE}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -7755,9 +5476,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07726CD-C4BF-466A-8576-A438B083AA62}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -8051,9 +5774,40 @@
         <v>140</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C16" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C18" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AmountType_SystemName</formula1>
     </dataValidation>
   </dataValidations>
@@ -8068,87 +5822,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96893D4-A29E-4C88-BC50-B38861E262FB}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D4" numberStoredAsText="1" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6085F575-8EC4-4744-BA59-22D8D4AF945F}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -8181,7 +5854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F21012-DAD9-4A93-A830-755D768928FB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8207,18 +5880,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -8237,7 +5910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CC3A3D-6CEA-48BB-A3BA-173BEB92EF23}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -8267,10 +5940,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8278,13 +5951,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -8292,13 +5965,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -8306,13 +5979,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -8320,13 +5993,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8334,13 +6007,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8348,13 +6021,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8362,13 +6035,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -8376,13 +6049,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -8390,13 +6063,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -8404,13 +6077,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -8418,13 +6091,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -8432,13 +6105,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -8446,13 +6119,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -8460,13 +6133,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -8488,12 +6161,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F2152F-9E11-46A9-A47E-956805B0E124}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8510,37 +6183,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" t="s">
         <v>282</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
         <v>283</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>284</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>285</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>286</v>
       </c>
-      <c r="F1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>287</v>
-      </c>
-      <c r="H1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" t="s">
-        <v>291</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -8557,13 +6230,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -8595,13 +6268,13 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -8622,80 +6295,80 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
         <v>1900</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>1900</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
         <v>292</v>
       </c>
-      <c r="F4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="1">
-        <v>1900</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="1">
-        <v>30</v>
+      <c r="L5">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
@@ -8706,34 +6379,34 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" t="s">
         <v>293</v>
       </c>
-      <c r="F6" t="s">
-        <v>136</v>
-      </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H6" t="s">
-        <v>295</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
@@ -8744,19 +6417,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
         <v>50</v>
@@ -8765,13 +6438,13 @@
         <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
@@ -8782,22 +6455,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
         <v>50</v>
@@ -8809,7 +6482,7 @@
         <v>44</v>
       </c>
       <c r="L8">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
@@ -8820,16 +6493,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -8838,7 +6511,7 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
@@ -8847,7 +6520,7 @@
         <v>44</v>
       </c>
       <c r="L9">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
@@ -8858,16 +6531,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
         <v>44</v>
@@ -8885,7 +6558,7 @@
         <v>44</v>
       </c>
       <c r="L10">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
@@ -8896,19 +6569,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -8917,13 +6590,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
       </c>
       <c r="L11">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
@@ -8934,34 +6607,34 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>292</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
@@ -8972,34 +6645,34 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H13" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K13" t="s">
         <v>44</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
@@ -9010,19 +6683,19 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -9031,13 +6704,13 @@
         <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
         <v>44</v>
       </c>
       <c r="L14">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
@@ -9048,16 +6721,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
@@ -9075,7 +6748,7 @@
         <v>44</v>
       </c>
       <c r="L15">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
@@ -9086,34 +6759,34 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="L16">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
@@ -9124,34 +6797,34 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L17">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
@@ -9162,34 +6835,34 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="L18">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
@@ -9200,34 +6873,34 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="K19" t="s">
         <v>44</v>
       </c>
       <c r="L19">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
@@ -9238,34 +6911,34 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K20" t="s">
         <v>44</v>
       </c>
       <c r="L20">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
@@ -9276,34 +6949,34 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F21" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="H21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="L21">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
@@ -9314,89 +6987,449 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="L22">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A23">
-        <v>1900</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23">
         <v>220</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="textLength" operator="greaterThan" sqref="A2:B23" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="textLength" operator="greaterThan" sqref="A2:B22" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C23" xr:uid="{00000000-0002-0000-1300-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C22" xr:uid="{00000000-0002-0000-1300-000002000000}">
       <formula1>AocType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D23" xr:uid="{00000000-0002-0000-1300-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D22" xr:uid="{00000000-0002-0000-1300-000003000000}">
       <formula1>Novelty_SystemName</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A6:L23 A1:L3" numberStoredAsText="1" calculatedColumn="1"/>
+    <ignoredError sqref="A5:L22 A1:L3" numberStoredAsText="1" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886F433C-5BBF-461A-9D95-F73E178837C6}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F5:I17 F1:I3 A1:D1 A5:B17 A2:B3 D2:D3 D5:D17" numberStoredAsText="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/PresentValueSeries/Dimensions.xlsx
+++ b/PresentValueSeries/Dimensions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EEC460-C61E-40BA-8D97-5FB7A26F8E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4817EA-A71E-4899-AD69-2EB287A69F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="321">
   <si>
     <t>SystemName</t>
   </si>
@@ -2526,8 +2526,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_PvAmountType" displayName="Table_PvAmountType" ref="A1:G18" totalsRowShown="0">
-  <autoFilter ref="A1:G18" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_PvAmountType" displayName="Table_PvAmountType" ref="A1:G16" totalsRowShown="0">
+  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SystemName" dataDxfId="65"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DisplayName" dataDxfId="64"/>
@@ -5393,8 +5393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90D6FDA-5CB2-4E6F-BD5A-98362BAFEEDE}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5466,7 +5466,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F3" numberStoredAsText="1" calculatedColumn="1"/>
+    <ignoredError sqref="A1:F1 B3 D3:F3 B2:F2" numberStoredAsText="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5476,10 +5476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07726CD-C4BF-466A-8576-A438B083AA62}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5774,40 +5774,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C18" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AmountType_SystemName</formula1>
     </dataValidation>
   </dataValidations>

--- a/PresentValueSeries/Dimensions.xlsx
+++ b/PresentValueSeries/Dimensions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4817EA-A71E-4899-AD69-2EB287A69F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D36A3-DFA7-4AF8-AEF0-BBE73E39CA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9947" yWindow="887" windowWidth="12946" windowHeight="10393" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="321">
   <si>
     <t>SystemName</t>
   </si>
@@ -1136,16 +1136,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2915,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC69F85-C9AE-4FC5-8D78-4F30166B2B3D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2959,6 +2957,9 @@
       <c r="B3" t="s">
         <v>312</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -2969,6 +2970,9 @@
       </c>
       <c r="B4" t="s">
         <v>311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3556,17 +3560,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
         <v>318</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>319</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>27</v>
       </c>
     </row>
@@ -3598,17 +3602,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
         <v>320</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>30</v>
       </c>
     </row>
@@ -3634,28 +3638,28 @@
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6">
         <v>10</v>
       </c>
     </row>
@@ -4306,28 +4310,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>309</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>308</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>40</v>
       </c>
     </row>
@@ -5393,7 +5397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90D6FDA-5CB2-4E6F-BD5A-98362BAFEEDE}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6264,41 +6268,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4">
         <v>1900</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>289</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>30</v>
       </c>
     </row>
@@ -7064,13 +7068,13 @@
       <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
       <c r="F2">
@@ -7084,36 +7088,36 @@
       <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>15</v>
       </c>
     </row>
@@ -7124,13 +7128,13 @@
       <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>291</v>
       </c>
       <c r="F5">
@@ -7144,13 +7148,13 @@
       <c r="B6" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>291</v>
       </c>
       <c r="F6">
@@ -7164,13 +7168,13 @@
       <c r="B7" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>291</v>
       </c>
       <c r="F7">
@@ -7184,13 +7188,13 @@
       <c r="B8" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>291</v>
       </c>
       <c r="F8">
@@ -7204,13 +7208,13 @@
       <c r="B9" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>291</v>
       </c>
       <c r="F9">
@@ -7233,13 +7237,13 @@
       <c r="B10" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>291</v>
       </c>
       <c r="F10">
@@ -7262,13 +7266,13 @@
       <c r="B11" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>291</v>
       </c>
       <c r="F11">
@@ -7282,13 +7286,13 @@
       <c r="B12" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>291</v>
       </c>
       <c r="F12">
@@ -7302,13 +7306,13 @@
       <c r="B13" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>291</v>
       </c>
       <c r="F13">
@@ -7322,13 +7326,13 @@
       <c r="B14" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>291</v>
       </c>
       <c r="F14">
@@ -7342,13 +7346,13 @@
       <c r="B15" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>291</v>
       </c>
       <c r="F15">
@@ -7362,13 +7366,13 @@
       <c r="B16" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>291</v>
       </c>
       <c r="F16">
@@ -7382,13 +7386,13 @@
       <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>291</v>
       </c>
       <c r="F17">

--- a/PresentValueSeries/Dimensions.xlsx
+++ b/PresentValueSeries/Dimensions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D36A3-DFA7-4AF8-AEF0-BBE73E39CA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3141EF-BB0B-48EC-89BF-984367045A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9947" yWindow="887" windowWidth="12946" windowHeight="10393" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="1" r:id="rId1"/>
@@ -2914,7 +2914,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5398,7 +5398,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/PresentValueSeries/Dimensions.xlsx
+++ b/PresentValueSeries/Dimensions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4817EA-A71E-4899-AD69-2EB287A69F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3141EF-BB0B-48EC-89BF-984367045A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="321">
   <si>
     <t>SystemName</t>
   </si>
@@ -1136,16 +1136,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2915,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC69F85-C9AE-4FC5-8D78-4F30166B2B3D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2959,6 +2957,9 @@
       <c r="B3" t="s">
         <v>312</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -2969,6 +2970,9 @@
       </c>
       <c r="B4" t="s">
         <v>311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3556,17 +3560,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
         <v>318</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>319</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>27</v>
       </c>
     </row>
@@ -3598,17 +3602,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
         <v>320</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>30</v>
       </c>
     </row>
@@ -3634,28 +3638,28 @@
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6">
         <v>10</v>
       </c>
     </row>
@@ -4306,28 +4310,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>309</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>308</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>40</v>
       </c>
     </row>
@@ -5393,8 +5397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90D6FDA-5CB2-4E6F-BD5A-98362BAFEEDE}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6264,41 +6268,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4">
         <v>1900</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>289</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>30</v>
       </c>
     </row>
@@ -7064,13 +7068,13 @@
       <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
       <c r="F2">
@@ -7084,36 +7088,36 @@
       <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>15</v>
       </c>
     </row>
@@ -7124,13 +7128,13 @@
       <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>291</v>
       </c>
       <c r="F5">
@@ -7144,13 +7148,13 @@
       <c r="B6" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>291</v>
       </c>
       <c r="F6">
@@ -7164,13 +7168,13 @@
       <c r="B7" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>291</v>
       </c>
       <c r="F7">
@@ -7184,13 +7188,13 @@
       <c r="B8" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>291</v>
       </c>
       <c r="F8">
@@ -7204,13 +7208,13 @@
       <c r="B9" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>291</v>
       </c>
       <c r="F9">
@@ -7233,13 +7237,13 @@
       <c r="B10" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>291</v>
       </c>
       <c r="F10">
@@ -7262,13 +7266,13 @@
       <c r="B11" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>291</v>
       </c>
       <c r="F11">
@@ -7282,13 +7286,13 @@
       <c r="B12" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>291</v>
       </c>
       <c r="F12">
@@ -7302,13 +7306,13 @@
       <c r="B13" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>291</v>
       </c>
       <c r="F13">
@@ -7322,13 +7326,13 @@
       <c r="B14" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>291</v>
       </c>
       <c r="F14">
@@ -7342,13 +7346,13 @@
       <c r="B15" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>291</v>
       </c>
       <c r="F15">
@@ -7362,13 +7366,13 @@
       <c r="B16" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>291</v>
       </c>
       <c r="F16">
@@ -7382,13 +7386,13 @@
       <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>291</v>
       </c>
       <c r="F17">

--- a/PresentValueSeries/Dimensions.xlsx
+++ b/PresentValueSeries/Dimensions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3141EF-BB0B-48EC-89BF-984367045A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AD66A1-1437-4D02-B122-278FBEF186B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="321">
   <si>
     <t>SystemName</t>
   </si>
@@ -2903,7 +2903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2914,10 +2914,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -2925,7 +2925,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2950,29 +2950,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>312</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>306</v>
       </c>
       <c r="B4" t="s">
         <v>311</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3003,13 +2997,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3017,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -3025,7 +3019,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -3033,7 +3027,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -3058,13 +3052,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -3080,7 +3074,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3088,7 +3082,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -3096,7 +3090,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3104,7 +3098,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3106,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -3120,7 +3114,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -3128,7 +3122,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -3136,7 +3130,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -3163,7 +3157,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
@@ -3171,7 +3165,7 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -3196,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -3210,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -3224,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -3238,7 +3232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -3252,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -3266,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -3280,7 +3274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -3294,7 +3288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -3308,7 +3302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>196</v>
       </c>
@@ -3322,7 +3316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -3336,7 +3330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -3350,7 +3344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -3364,7 +3358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>204</v>
       </c>
@@ -3378,7 +3372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -3392,7 +3386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -3406,7 +3400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -3420,7 +3414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -3434,7 +3428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>212</v>
       </c>
@@ -3448,7 +3442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -3462,7 +3456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>216</v>
       </c>
@@ -3476,7 +3470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -3490,7 +3484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -3504,7 +3498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -3518,7 +3512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -3532,7 +3526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -3546,7 +3540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -3560,7 +3554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>318</v>
       </c>
@@ -3574,7 +3568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -3588,7 +3582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -3602,7 +3596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -3635,9 +3629,9 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3651,7 +3645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>316</v>
       </c>
@@ -3674,14 +3668,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3692,7 +3686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>232</v>
       </c>
@@ -3703,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -3714,7 +3708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -3742,13 +3736,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3756,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -3764,7 +3758,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -3772,7 +3766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -3799,13 +3793,13 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3813,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -3838,13 +3832,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3852,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -3877,7 +3871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -3885,7 +3879,7 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3899,7 +3893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -3934,7 +3928,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -3942,7 +3936,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3950,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -3970,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -3984,7 +3978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -3998,7 +3992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -4012,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -4026,7 +4020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -4040,7 +4034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -4054,7 +4048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>252</v>
       </c>
@@ -4068,7 +4062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -4082,7 +4076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -4110,7 +4104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -4124,7 +4118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -4152,7 +4146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -4166,7 +4160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -4180,7 +4174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -4194,7 +4188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>272</v>
       </c>
@@ -4208,7 +4202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>274</v>
       </c>
@@ -4222,7 +4216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>276</v>
       </c>
@@ -4255,15 +4249,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4277,7 +4271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4288,7 +4282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4299,7 +4293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -4310,7 +4304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>308</v>
       </c>
@@ -4321,7 +4315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>307</v>
       </c>
@@ -4335,7 +4329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4346,7 +4340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4357,7 +4351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4368,7 +4362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4379,7 +4373,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4393,7 +4387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4407,7 +4401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -4418,7 +4412,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4429,7 +4423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -4440,7 +4434,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4451,7 +4445,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -4462,7 +4456,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -4473,7 +4467,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -4506,7 +4500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -4515,7 +4509,7 @@
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4532,7 +4526,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4549,7 +4543,7 @@
         <v>1.2012</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4566,7 +4560,7 @@
         <v>1.2013</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4583,7 +4577,7 @@
         <v>1.2014</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4600,7 +4594,7 @@
         <v>1.2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -4617,7 +4611,7 @@
         <v>1.2016</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -4634,7 +4628,7 @@
         <v>1.2017</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -4651,7 +4645,7 @@
         <v>1.2018</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -4668,7 +4662,7 @@
         <v>1.2019</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4685,7 +4679,7 @@
         <v>1.4016</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4702,7 +4696,7 @@
         <v>1.4016999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4719,7 +4713,7 @@
         <v>1.4017999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4761,7 +4755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -4770,7 +4764,7 @@
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>278</v>
       </c>
@@ -4790,7 +4784,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1970</v>
       </c>
@@ -4810,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1971</v>
       </c>
@@ -4830,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1972</v>
       </c>
@@ -4844,7 +4838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1973</v>
       </c>
@@ -4858,7 +4852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1974</v>
       </c>
@@ -4869,7 +4863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1975</v>
       </c>
@@ -4877,7 +4871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1976</v>
       </c>
@@ -4885,7 +4879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1977</v>
       </c>
@@ -4893,7 +4887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1978</v>
       </c>
@@ -4901,7 +4895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1979</v>
       </c>
@@ -4909,7 +4903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1980</v>
       </c>
@@ -4917,7 +4911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1981</v>
       </c>
@@ -4925,457 +4919,457 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1982</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1983</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1984</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1985</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1986</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1987</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1988</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1989</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1990</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1991</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1992</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1993</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1994</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1995</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1996</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1997</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1998</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1999</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2001</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2002</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2003</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2004</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2005</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2006</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2007</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2009</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2010</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2012</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2013</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2014</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2016</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2022</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2025</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2026</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2027</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2028</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2029</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2030</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2031</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2032</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2033</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2034</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2035</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2036</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2037</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2038</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2039</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2040</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2041</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2042</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2043</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2044</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2045</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2046</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2047</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2048</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2049</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2050</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2051</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2052</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2053</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2054</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2055</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2056</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2057</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2059</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2060</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2061</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2062</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2063</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2064</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2065</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2066</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2067</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2068</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2069</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2070</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2071</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2072</v>
       </c>
@@ -5401,7 +5395,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -5411,7 +5405,7 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5431,7 +5425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5445,7 +5439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -5486,7 +5480,7 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
@@ -5497,7 +5491,7 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +5514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -5540,7 +5534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5554,7 +5548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -5577,7 +5571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -5600,7 +5594,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -5617,7 +5611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5634,7 +5628,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -5651,7 +5645,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -5668,7 +5662,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -5682,7 +5676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -5699,7 +5693,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -5716,7 +5710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -5730,7 +5724,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -5744,7 +5738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -5761,7 +5755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -5802,13 +5796,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5833,14 +5827,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5851,7 +5845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5859,7 +5853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -5889,7 +5883,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
@@ -5897,7 +5891,7 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5911,7 +5905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -5922,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -5936,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -5950,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -5964,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -5978,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -5992,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -6006,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -6020,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -6034,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -6048,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -6062,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -6076,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -6090,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -6104,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -6142,11 +6136,11 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.8203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.8203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.17578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
@@ -6154,7 +6148,7 @@
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>278</v>
       </c>
@@ -6192,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1900</v>
       </c>
@@ -6230,7 +6224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -6268,7 +6262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1900</v>
       </c>
@@ -6306,7 +6300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1900</v>
       </c>
@@ -6344,7 +6338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1900</v>
       </c>
@@ -6382,7 +6376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1900</v>
       </c>
@@ -6420,7 +6414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1900</v>
       </c>
@@ -6458,7 +6452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1900</v>
       </c>
@@ -6496,7 +6490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1900</v>
       </c>
@@ -6534,7 +6528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1900</v>
       </c>
@@ -6572,7 +6566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1900</v>
       </c>
@@ -6610,7 +6604,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1900</v>
       </c>
@@ -6648,7 +6642,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1900</v>
       </c>
@@ -6686,7 +6680,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1900</v>
       </c>
@@ -6724,7 +6718,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1900</v>
       </c>
@@ -6762,7 +6756,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1900</v>
       </c>
@@ -6800,7 +6794,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1900</v>
       </c>
@@ -6838,7 +6832,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1900</v>
       </c>
@@ -6876,7 +6870,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -6914,7 +6908,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -6952,7 +6946,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1900</v>
       </c>
@@ -7020,7 +7014,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
@@ -7032,7 +7026,7 @@
     <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7061,7 +7055,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -7081,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -7101,7 +7095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -7121,7 +7115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -7141,7 +7135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -7161,7 +7155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -7181,7 +7175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -7201,7 +7195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -7230,7 +7224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -7259,7 +7253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -7279,7 +7273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -7299,7 +7293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -7319,7 +7313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -7339,7 +7333,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -7359,7 +7353,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -7379,7 +7373,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>160</v>
       </c>
